--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23760"/>
+    <workbookView windowHeight="23680"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="121">
   <si>
     <t>策略名称</t>
   </si>
@@ -145,6 +145,18 @@
     <t>#var#</t>
   </si>
   <si>
+    <t>胜率</t>
+  </si>
+  <si>
+    <t>#win_rate#</t>
+  </si>
+  <si>
+    <t>盈亏比</t>
+  </si>
+  <si>
+    <t>#profit_loss_rate#</t>
+  </si>
+  <si>
     <t>最长回撤开始日期</t>
   </si>
   <si>
@@ -271,6 +283,12 @@
     <t>#weekly_max_drawdown#</t>
   </si>
   <si>
+    <t>周度胜率</t>
+  </si>
+  <si>
+    <t>#weekly_win_rate#</t>
+  </si>
+  <si>
     <t>年份</t>
   </si>
   <si>
@@ -290,9 +308,6 @@
   </si>
   <si>
     <t>#sharpe_ratio#</t>
-  </si>
-  <si>
-    <t>#weekly_win_rate#</t>
   </si>
   <si>
     <t>一月</t>
@@ -372,10 +387,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -406,6 +421,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -414,20 +436,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,6 +449,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -450,32 +503,46 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,15 +556,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,50 +569,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -594,175 +609,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,6 +872,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -867,21 +921,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,183 +965,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1475,10 +1490,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
@@ -1739,7 +1754,7 @@
       <c r="A22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="5"/>
@@ -1751,7 +1766,7 @@
       <c r="A23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="5"/>
@@ -1763,7 +1778,7 @@
       <c r="A24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="5"/>
@@ -1787,7 +1802,7 @@
       <c r="A26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="5"/>
@@ -1799,7 +1814,7 @@
       <c r="A27" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="5"/>
@@ -1808,10 +1823,10 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:6">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="5"/>
@@ -1820,10 +1835,10 @@
       <c r="F28" s="5"/>
     </row>
     <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="5"/>
@@ -1892,18 +1907,18 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="14" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1940,11 +1955,35 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="12" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:2">
+      <c r="A43" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:2">
+      <c r="A44" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:2">
+      <c r="A45" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1971,22 +2010,22 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="20" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -1996,22 +2035,22 @@
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2039,81 +2078,81 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2141,81 +2180,81 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23680"/>
+    <workbookView windowHeight="24160"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="129">
   <si>
     <t>策略名称</t>
   </si>
@@ -281,6 +281,30 @@
   </si>
   <si>
     <t>#weekly_max_drawdown#</t>
+  </si>
+  <si>
+    <t>周度累计回撤深度</t>
+  </si>
+  <si>
+    <t>#weekly_ulcer_index#</t>
+  </si>
+  <si>
+    <t>周度累计回撤夏普率</t>
+  </si>
+  <si>
+    <t>#weekly_ulcer_performance_index#</t>
+  </si>
+  <si>
+    <t>周度超额累计回撤深度</t>
+  </si>
+  <si>
+    <t>#weekly_excess_ulcer_index#</t>
+  </si>
+  <si>
+    <t>周度超额累计回撤夏普率</t>
+  </si>
+  <si>
+    <t>#weekly_excess_ulcer_performance_index#</t>
   </si>
   <si>
     <t>周度胜率</t>
@@ -388,9 +412,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -421,13 +445,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -449,22 +466,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,19 +489,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,7 +521,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,14 +566,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,23 +588,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,169 +639,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,6 +880,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -866,7 +929,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,9 +966,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,215 +989,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="13">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="13">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1490,10 +1514,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
@@ -1979,11 +2003,43 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="12" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:2">
+      <c r="A46" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:2">
+      <c r="A47" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:2">
+      <c r="A48" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:2">
+      <c r="A49" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2010,13 +2066,13 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="20" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>32</v>
@@ -2025,7 +2081,7 @@
         <v>66</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -2035,22 +2091,22 @@
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2078,81 +2134,81 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2180,81 +2236,81 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="24160"/>
+    <workbookView windowHeight="22280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
   <si>
     <t>策略名称</t>
   </si>
@@ -229,12 +229,24 @@
     <t>#excess_sharpe#</t>
   </si>
   <si>
+    <t>主动收益率年化波动率</t>
+  </si>
+  <si>
+    <t>#excess_annual_volatility#</t>
+  </si>
+  <si>
     <t>主动收益最大回撤</t>
   </si>
   <si>
     <t>#excess_max_drawdown#</t>
   </si>
   <si>
+    <t>主动收益月度胜率</t>
+  </si>
+  <si>
+    <t>#monthly_excess_win_rate#</t>
+  </si>
+  <si>
     <t>跟踪误差</t>
   </si>
   <si>
@@ -316,24 +328,45 @@
     <t>年份</t>
   </si>
   <si>
+    <t>基准收益率</t>
+  </si>
+  <si>
     <t>主动收益率</t>
   </si>
   <si>
+    <t>主动收益最大回撤持续时间</t>
+  </si>
+  <si>
     <t>超额收益周胜率</t>
   </si>
   <si>
+    <t>超额收益月胜率</t>
+  </si>
+  <si>
     <t>#year#</t>
   </si>
   <si>
     <t>#returns#</t>
   </si>
   <si>
+    <t>#benchmark_returns#</t>
+  </si>
+  <si>
     <t>#active_returns#</t>
   </si>
   <si>
+    <t>#active_max_drawdown#</t>
+  </si>
+  <si>
+    <t>#active_max_drawdown_duration_days#</t>
+  </si>
+  <si>
     <t>#sharpe_ratio#</t>
   </si>
   <si>
+    <t>#weekly_excess_win_rate#</t>
+  </si>
+  <si>
     <t>一月</t>
   </si>
   <si>
@@ -370,6 +403,9 @@
     <t>十二月</t>
   </si>
   <si>
+    <t>年度加总</t>
+  </si>
+  <si>
     <t>#1#</t>
   </si>
   <si>
@@ -404,17 +440,23 @@
   </si>
   <si>
     <t>#12#</t>
+  </si>
+  <si>
+    <t>#cum#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -445,7 +487,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,6 +495,36 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,8 +546,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,6 +564,57 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -496,43 +628,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,59 +635,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -627,181 +669,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,6 +922,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -902,48 +977,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -964,6 +1006,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -974,198 +1031,193 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="13">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="13">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="13">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="13">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1514,10 +1566,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
@@ -1527,510 +1579,510 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" customHeight="1" spans="1:6">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:6">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" customHeight="1" spans="1:6">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" customHeight="1" spans="1:6">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="23" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="23" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="22" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:2">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2038,8 +2090,24 @@
       <c r="A49" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="23" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:2">
+      <c r="A50" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:2">
+      <c r="A51" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2054,59 +2122,87 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10.8365384615385" style="5" customWidth="1"/>
-    <col min="2" max="7" width="20.8365384615385" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="10.8365384615385" style="5"/>
+    <col min="1" max="1" width="10.8365384615385" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.1442307692308" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.6634615384615" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.0673076923077" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.0384615384615" style="6" customWidth="1"/>
+    <col min="6" max="6" width="34.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.8365384615385" style="6" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="6" customWidth="1"/>
+    <col min="9" max="9" width="29.9519230769231" style="6" customWidth="1"/>
+    <col min="10" max="10" width="24.5192307692308" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="10.8365384615385" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="20" customHeight="1" spans="1:11">
+    <row r="1" s="5" customFormat="1" ht="20" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>104</v>
+      <c r="I1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:10">
+      <c r="A2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>97</v>
+      <c r="I2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2118,97 +2214,104 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.8365384615385" style="2" customWidth="1"/>
     <col min="2" max="13" width="15.8365384615385" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.8365384615385" style="2"/>
+    <col min="14" max="14" width="14.0961538461538" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.8365384615385" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:13">
-      <c r="A2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>128</v>
+      <c r="B2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2220,97 +2323,104 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.8365384615385" style="2" customWidth="1"/>
     <col min="2" max="13" width="15.8365384615385" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.8365384615385" style="2"/>
+    <col min="14" max="14" width="14.5769230769231" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.8365384615385" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:13">
-      <c r="A2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>128</v>
+      <c r="B2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22280" activeTab="2"/>
+    <workbookView windowHeight="24160"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
   <si>
     <t>策略名称</t>
   </si>
@@ -358,7 +358,7 @@
     <t>#active_max_drawdown#</t>
   </si>
   <si>
-    <t>#active_max_drawdown_duration_days#</t>
+    <t>#active_max_drawdown_days#</t>
   </si>
   <si>
     <t>#sharpe_ratio#</t>
@@ -450,13 +450,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -487,7 +487,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,84 +508,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,8 +531,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,8 +605,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,7 +615,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,181 +669,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,8 +922,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,7 +932,67 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,75 +1014,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1031,92 +1022,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="13">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="12">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,69 +1125,69 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="13">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="12">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1197,10 +1197,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1209,10 +1208,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1568,8 +1567,8 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
@@ -1579,10 +1578,10 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6"/>
@@ -1591,10 +1590,10 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6"/>
@@ -1603,10 +1602,10 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6"/>
@@ -1615,10 +1614,10 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6"/>
@@ -1627,10 +1626,10 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="6"/>
@@ -1639,10 +1638,10 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6"/>
@@ -1651,10 +1650,10 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="6"/>
@@ -1663,10 +1662,10 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="6"/>
@@ -1675,10 +1674,10 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="6"/>
@@ -1687,10 +1686,10 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="6"/>
@@ -1699,10 +1698,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="6"/>
@@ -1711,10 +1710,10 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="6"/>
@@ -1723,10 +1722,10 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="6"/>
@@ -1735,10 +1734,10 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="6"/>
@@ -1747,18 +1746,18 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="6"/>
@@ -1767,10 +1766,10 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="6"/>
@@ -1779,10 +1778,10 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="6"/>
@@ -1791,10 +1790,10 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="6"/>
@@ -1803,10 +1802,10 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="6"/>
@@ -1815,10 +1814,10 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="6"/>
@@ -1827,10 +1826,10 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="6"/>
@@ -1839,10 +1838,10 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="6"/>
@@ -1851,10 +1850,10 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="6"/>
@@ -1863,10 +1862,10 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="6"/>
@@ -1875,10 +1874,10 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="6"/>
@@ -1887,10 +1886,10 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="6"/>
@@ -1899,10 +1898,10 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" customHeight="1" spans="1:6">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="6"/>
@@ -1911,10 +1910,10 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="6"/>
@@ -1923,10 +1922,10 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:6">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="6"/>
@@ -1935,10 +1934,10 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" customHeight="1" spans="1:6">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="6"/>
@@ -1947,10 +1946,10 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" customHeight="1" spans="1:6">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="6"/>
@@ -1959,154 +1958,154 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:2">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="22" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:2">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="26" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2122,7 +2121,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
@@ -2135,9 +2134,10 @@
     <col min="6" max="6" width="34.125" style="6" customWidth="1"/>
     <col min="7" max="7" width="20.8365384615385" style="6" customWidth="1"/>
     <col min="8" max="8" width="22.75" style="6" customWidth="1"/>
-    <col min="9" max="9" width="29.9519230769231" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.3846153846154" style="6" customWidth="1"/>
     <col min="10" max="10" width="24.5192307692308" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="10.8365384615385" style="6"/>
+    <col min="11" max="11" width="22.75" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="10.8365384615385" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="20" customHeight="1" spans="1:11">
@@ -2166,14 +2166,16 @@
         <v>66</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:10">
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>108</v>
       </c>
@@ -2198,10 +2200,13 @@
       <c r="H2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2216,7 +2221,7 @@
   <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>

--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="24160"/>
+    <workbookView windowHeight="22620"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="143">
   <si>
     <t>策略名称</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>#sharpe_ratio#</t>
+  </si>
+  <si>
+    <t>#annual_tracking_error#</t>
   </si>
   <si>
     <t>#weekly_excess_win_rate#</t>
@@ -450,13 +453,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -487,7 +490,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,6 +527,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,41 +556,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,29 +572,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,14 +590,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -621,16 +609,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,19 +678,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,151 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,8 +925,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,17 +955,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,6 +985,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -982,208 +1011,182 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="12">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="12">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,9 +1200,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1208,10 +1211,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2121,7 +2124,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
@@ -2201,10 +2204,10 @@
         <v>67</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>75</v>
@@ -2225,7 +2228,7 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.8365384615385" style="2" customWidth="1"/>
     <col min="2" max="13" width="15.8365384615385" style="2" customWidth="1"/>
@@ -2236,43 +2239,43 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:14">
@@ -2280,43 +2283,43 @@
         <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +2337,7 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.8365384615385" style="2" customWidth="1"/>
     <col min="2" max="13" width="15.8365384615385" style="2" customWidth="1"/>
@@ -2345,43 +2348,43 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:14">
@@ -2389,43 +2392,43 @@
         <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22620"/>
+    <workbookView windowHeight="24320"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
     <t>主动收益率年化波动率</t>
   </si>
   <si>
-    <t>#excess_annual_volatility#</t>
+    <t>#excess_volatility#</t>
   </si>
   <si>
     <t>主动收益最大回撤</t>
@@ -453,13 +453,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -490,36 +490,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,9 +503,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,7 +548,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -572,22 +563,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,34 +587,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,6 +609,35 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -678,25 +678,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,145 +840,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,15 +922,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -942,15 +933,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,6 +952,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -980,6 +980,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1014,179 +1029,164 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,7 +1200,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1214,7 +1214,7 @@
     <xf numFmtId="177" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="24320"/>
+    <workbookView windowHeight="22540"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
     <sheet name="年度指标" sheetId="2" r:id="rId2"/>
     <sheet name="月度收益" sheetId="3" r:id="rId3"/>
-    <sheet name="月度主动收益" sheetId="4" r:id="rId4"/>
+    <sheet name="月度超额收益" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
   <si>
     <t>策略名称</t>
   </si>
@@ -193,13 +193,13 @@
     <t>#excess_max_drawdown_duration_days#</t>
   </si>
   <si>
-    <t>主动收益</t>
+    <t>超额收益</t>
   </si>
   <si>
     <t>#excess_returns#</t>
   </si>
   <si>
-    <t>年化主动收益</t>
+    <t>年化超额收益</t>
   </si>
   <si>
     <t>#excess_annual_returns#</t>
@@ -223,25 +223,25 @@
     <t>#information_ratio#</t>
   </si>
   <si>
-    <t>主动收益夏普率</t>
+    <t>超额收益夏普率</t>
   </si>
   <si>
     <t>#excess_sharpe#</t>
   </si>
   <si>
-    <t>主动收益率年化波动率</t>
+    <t>超额收益率年化波动率</t>
   </si>
   <si>
     <t>#excess_volatility#</t>
   </si>
   <si>
-    <t>主动收益最大回撤</t>
+    <t>超额收益最大回撤</t>
   </si>
   <si>
     <t>#excess_max_drawdown#</t>
   </si>
   <si>
-    <t>主动收益月度胜率</t>
+    <t>超额收益月度胜率</t>
   </si>
   <si>
     <t>#monthly_excess_win_rate#</t>
@@ -331,10 +331,10 @@
     <t>基准收益率</t>
   </si>
   <si>
-    <t>主动收益率</t>
-  </si>
-  <si>
-    <t>主动收益最大回撤持续时间</t>
+    <t>超额收益率</t>
+  </si>
+  <si>
+    <t>超额收益最大回撤持续时间</t>
   </si>
   <si>
     <t>超额收益周胜率</t>
@@ -352,13 +352,10 @@
     <t>#benchmark_returns#</t>
   </si>
   <si>
-    <t>#active_returns#</t>
-  </si>
-  <si>
-    <t>#active_max_drawdown#</t>
-  </si>
-  <si>
-    <t>#active_max_drawdown_days#</t>
+    <t>#geometric_excess_return#</t>
+  </si>
+  <si>
+    <t>#excess_max_drawdown_days#</t>
   </si>
   <si>
     <t>#sharpe_ratio#</t>
@@ -453,12 +450,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -503,6 +500,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -524,31 +529,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -563,17 +545,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,14 +570,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,21 +591,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,11 +607,34 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -684,73 +681,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,91 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,6 +920,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -937,35 +949,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,6 +969,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,32 +1025,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1037,143 +1034,143 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1186,7 +1183,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,9 +1197,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1211,9 +1208,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1571,7 +1568,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
@@ -2124,7 +2121,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
@@ -2132,7 +2129,7 @@
     <col min="1" max="1" width="10.8365384615385" style="6" customWidth="1"/>
     <col min="2" max="2" width="17.1442307692308" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.6634615384615" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.0673076923077" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.7019230769231" style="6" customWidth="1"/>
     <col min="5" max="5" width="24.0384615384615" style="6" customWidth="1"/>
     <col min="6" max="6" width="34.125" style="6" customWidth="1"/>
     <col min="7" max="7" width="20.8365384615385" style="6" customWidth="1"/>
@@ -2192,22 +2189,22 @@
         <v>111</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>67</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>75</v>
@@ -2239,43 +2236,43 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:14">
@@ -2283,43 +2280,43 @@
         <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2348,43 +2345,43 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:14">
@@ -2392,43 +2389,43 @@
         <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22540"/>
+    <workbookView windowHeight="24320"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
     <sheet name="年度指标" sheetId="2" r:id="rId2"/>
     <sheet name="月度收益" sheetId="3" r:id="rId3"/>
-    <sheet name="月度超额收益" sheetId="4" r:id="rId4"/>
+    <sheet name="月度超额收益（几何）" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="144">
   <si>
     <t>策略名称</t>
   </si>
@@ -193,13 +193,19 @@
     <t>#excess_max_drawdown_duration_days#</t>
   </si>
   <si>
-    <t>超额收益</t>
+    <t>超额收益（几何）</t>
   </si>
   <si>
     <t>#excess_returns#</t>
   </si>
   <si>
-    <t>年化超额收益</t>
+    <t>超额收益（算术）</t>
+  </si>
+  <si>
+    <t>#excess_cum_returns#</t>
+  </si>
+  <si>
+    <t>年化超额收益（几何）</t>
   </si>
   <si>
     <t>#excess_annual_returns#</t>
@@ -235,7 +241,7 @@
     <t>#excess_volatility#</t>
   </si>
   <si>
-    <t>超额收益最大回撤</t>
+    <t>超额收益最大回撤（几何）</t>
   </si>
   <si>
     <t>#excess_max_drawdown#</t>
@@ -289,7 +295,7 @@
     <t>#weekly_tracking_error#</t>
   </si>
   <si>
-    <t>周度最大回撤</t>
+    <t>周度最大回撤（几何）</t>
   </si>
   <si>
     <t>#weekly_max_drawdown#</t>
@@ -331,7 +337,7 @@
     <t>基准收益率</t>
   </si>
   <si>
-    <t>超额收益率</t>
+    <t>超额收益率（几何）</t>
   </si>
   <si>
     <t>超额收益最大回撤持续时间</t>
@@ -450,13 +456,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -500,11 +506,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,10 +520,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,8 +536,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -553,7 +576,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,31 +612,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,29 +641,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -681,73 +687,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,13 +837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,73 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,17 +925,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,7 +953,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,6 +969,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,15 +1023,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1022,159 +1037,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="8">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="8">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,7 +1189,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,8 +1204,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1208,10 +1214,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1565,7 +1571,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -1949,7 +1955,7 @@
       <c r="A32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="6"/>
@@ -1985,7 +1991,7 @@
       <c r="A36" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="20" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2014,10 +2020,10 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="19" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2057,7 +2063,7 @@
       <c r="A45" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="22" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2073,7 +2079,7 @@
       <c r="A47" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2102,11 +2108,19 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="22" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:2">
+      <c r="A52" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2135,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
@@ -2142,72 +2156,72 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="20" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:11">
       <c r="A2" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2236,87 +2250,87 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2331,7 +2345,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
@@ -2345,87 +2359,87 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="24320"/>
+    <workbookView windowHeight="22540"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="145">
   <si>
     <t>策略名称</t>
   </si>
@@ -295,7 +295,7 @@
     <t>#weekly_tracking_error#</t>
   </si>
   <si>
-    <t>周度最大回撤（几何）</t>
+    <t>周度最大回撤</t>
   </si>
   <si>
     <t>#weekly_max_drawdown#</t>
@@ -361,7 +361,10 @@
     <t>#geometric_excess_return#</t>
   </si>
   <si>
-    <t>#excess_max_drawdown_days#</t>
+    <t>#geometric_excess_drawdown#</t>
+  </si>
+  <si>
+    <t>#geometric_excess_drawdown_days#</t>
   </si>
   <si>
     <t>#sharpe_ratio#</t>
@@ -458,11 +461,11 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -493,16 +496,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,39 +538,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,58 +556,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,7 +571,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,6 +608,42 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -675,181 +678,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,15 +928,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -945,30 +939,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,8 +961,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,13 +993,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,101 +1022,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,56 +1143,56 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1574,7 +1577,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
@@ -2135,7 +2138,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
@@ -2203,22 +2206,22 @@
         <v>113</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>77</v>
@@ -2250,43 +2253,43 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:14">
@@ -2294,43 +2297,43 @@
         <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2359,43 +2362,43 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:14">
@@ -2403,43 +2406,43 @@
         <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="152">
   <si>
     <t>策略名称</t>
   </si>
@@ -340,9 +340,21 @@
     <t>超额收益率（几何）</t>
   </si>
   <si>
+    <t>绝对收益最大回撤</t>
+  </si>
+  <si>
+    <t>绝对收益最大回撤持续时间</t>
+  </si>
+  <si>
     <t>超额收益最大回撤持续时间</t>
   </si>
   <si>
+    <t>超额收益年化波动率</t>
+  </si>
+  <si>
+    <t>绝对收益年化波动率</t>
+  </si>
+  <si>
     <t>超额收益周胜率</t>
   </si>
   <si>
@@ -361,10 +373,19 @@
     <t>#geometric_excess_return#</t>
   </si>
   <si>
+    <t>#max_drawdown_days#</t>
+  </si>
+  <si>
     <t>#geometric_excess_drawdown#</t>
   </si>
   <si>
     <t>#geometric_excess_drawdown_days#</t>
+  </si>
+  <si>
+    <t>#excess_annual_volatility#</t>
+  </si>
+  <si>
+    <t>#annual_volatility#</t>
   </si>
   <si>
     <t>#sharpe_ratio#</t>
@@ -458,14 +479,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -496,23 +518,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -522,16 +531,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -554,40 +585,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,21 +609,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,6 +622,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -644,6 +659,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -678,37 +700,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,31 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,103 +862,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,17 +950,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,32 +988,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,180 +1022,203 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="15">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="15">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1206,9 +1228,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1217,9 +1240,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1577,7 +1600,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
@@ -1587,10 +1610,10 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6"/>
@@ -1599,10 +1622,10 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6"/>
@@ -1611,10 +1634,10 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6"/>
@@ -1623,10 +1646,10 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6"/>
@@ -1635,10 +1658,10 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="6"/>
@@ -1647,10 +1670,10 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6"/>
@@ -1659,10 +1682,10 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="6"/>
@@ -1671,10 +1694,10 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="6"/>
@@ -1683,10 +1706,10 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="6"/>
@@ -1695,10 +1718,10 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="6"/>
@@ -1707,10 +1730,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="6"/>
@@ -1719,10 +1742,10 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="6"/>
@@ -1731,10 +1754,10 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="6"/>
@@ -1743,10 +1766,10 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="6"/>
@@ -1755,18 +1778,18 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="6"/>
@@ -1775,10 +1798,10 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="6"/>
@@ -1787,10 +1810,10 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="6"/>
@@ -1799,10 +1822,10 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="6"/>
@@ -1811,10 +1834,10 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="6"/>
@@ -1823,10 +1846,10 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="6"/>
@@ -1835,10 +1858,10 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="6"/>
@@ -1847,10 +1870,10 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="6"/>
@@ -1859,10 +1882,10 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="6"/>
@@ -1871,10 +1894,10 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="25" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="6"/>
@@ -1883,10 +1906,10 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="6"/>
@@ -1895,10 +1918,10 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="6"/>
@@ -1907,10 +1930,10 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" customHeight="1" spans="1:6">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="6"/>
@@ -1919,10 +1942,10 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="6"/>
@@ -1931,10 +1954,10 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:6">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="6"/>
@@ -1943,10 +1966,10 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" customHeight="1" spans="1:6">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="20" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="6"/>
@@ -1955,10 +1978,10 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" customHeight="1" spans="1:6">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="6"/>
@@ -1967,162 +1990,162 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="23" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:2">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:2">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="27" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2135,29 +2158,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.8365384615385" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.1442307692308" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.6634615384615" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.7019230769231" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.2980769230769" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.3846153846154" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.3557692307692" style="6" customWidth="1"/>
     <col min="5" max="5" width="24.0384615384615" style="6" customWidth="1"/>
-    <col min="6" max="6" width="34.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.8365384615385" style="6" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19.3846153846154" style="6" customWidth="1"/>
+    <col min="6" max="6" width="33.4903846153846" style="6" customWidth="1"/>
+    <col min="7" max="7" width="32.0480769230769" style="6" customWidth="1"/>
+    <col min="8" max="8" width="33.9711538461538" style="6" customWidth="1"/>
+    <col min="9" max="9" width="25.4807692307692" style="6" customWidth="1"/>
     <col min="10" max="10" width="24.5192307692308" style="6" customWidth="1"/>
-    <col min="11" max="11" width="22.75" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="10.8365384615385" style="6"/>
+    <col min="11" max="11" width="14.4134615384615" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.8173076923077" style="6" customWidth="1"/>
+    <col min="13" max="13" width="16.5096153846154" style="6" customWidth="1"/>
+    <col min="14" max="14" width="20.9903846153846" style="6" customWidth="1"/>
+    <col min="15" max="15" width="22.4230769230769" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="10.8365384615385" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="20" customHeight="1" spans="1:11">
+    <row r="1" s="5" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
@@ -2171,59 +2198,83 @@
         <v>106</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:11">
+      <c r="N1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:15">
       <c r="A2" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="M2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2253,87 +2304,87 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2362,87 +2413,87 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -4,20 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22540"/>
+    <workbookView windowHeight="22460"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
     <sheet name="年度指标" sheetId="2" r:id="rId2"/>
     <sheet name="月度收益" sheetId="3" r:id="rId3"/>
     <sheet name="月度超额收益（几何）" sheetId="4" r:id="rId4"/>
+    <sheet name="个股权重" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="daily__date_count">COUNTA(个股权重!$A:$A)-1</definedName>
+    <definedName name="daily__weight_25">OFFSET(个股权重!$F$2,0,0,daily__date_count)</definedName>
+    <definedName name="daily__weight_50">OFFSET(个股权重!$G$2,0,0,daily__date_count)</definedName>
+    <definedName name="daily__weight_75">OFFSET(个股权重!$H$2,0,0,daily__date_count)</definedName>
+    <definedName name="daily__weight_mean">OFFSET(个股权重!$C$2,0,0,daily__date_count)</definedName>
+    <definedName name="daily__weight_max">OFFSET(个股权重!$I$2,0,0,daily__date_count)</definedName>
+    <definedName name="daily__dates">OFFSET(个股权重!$A$1,0,0,daily__date_count)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="170">
   <si>
     <t>策略名称</t>
   </si>
@@ -473,20 +483,75 @@
   </si>
   <si>
     <t>#cum#</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>持仓总个数</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>#date#</t>
+  </si>
+  <si>
+    <t>#count#</t>
+  </si>
+  <si>
+    <t>#mean#</t>
+  </si>
+  <si>
+    <t>#std#</t>
+  </si>
+  <si>
+    <t>#min#</t>
+  </si>
+  <si>
+    <t>#percent_25#</t>
+  </si>
+  <si>
+    <t>#percent_50#</t>
+  </si>
+  <si>
+    <t>#percent_75#</t>
+  </si>
+  <si>
+    <t>#max#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -518,44 +583,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,18 +618,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,16 +650,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,38 +680,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,7 +771,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,7 +801,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,31 +903,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,31 +927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,79 +939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,20 +1015,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,21 +1069,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1048,190 +1095,213 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="15">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="15">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1240,9 +1310,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1310,6 +1380,1006 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>个股权重</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>个股权重!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[0]!daily__dates</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日期</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!daily__weight_mean</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>个股权重!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[0]!daily__dates</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日期</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!daily__weight_75</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>个股权重!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[0]!daily__dates</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日期</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!daily__weight_max</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="101121013"/>
+        <c:axId val="195469628"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="101121013"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="195469628"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="195469628"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101121013"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>535940</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>246380</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5896610" y="255905"/>
+        <a:ext cx="8705850" cy="5324475"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1600,7 +2670,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
@@ -1610,548 +2680,549 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" customHeight="1" spans="1:6">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" customHeight="1" spans="1:6">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" customHeight="1" spans="1:6">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" customHeight="1" spans="1:6">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="26" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="26" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="28" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="27" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:2">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="28" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="28" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:2">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="28" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="32" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2166,115 +3237,115 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10.8365384615385" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.2980769230769" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.3846153846154" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.3557692307692" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.0384615384615" style="6" customWidth="1"/>
-    <col min="6" max="6" width="33.4903846153846" style="6" customWidth="1"/>
-    <col min="7" max="7" width="32.0480769230769" style="6" customWidth="1"/>
-    <col min="8" max="8" width="33.9711538461538" style="6" customWidth="1"/>
-    <col min="9" max="9" width="25.4807692307692" style="6" customWidth="1"/>
-    <col min="10" max="10" width="24.5192307692308" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.4134615384615" style="6" customWidth="1"/>
-    <col min="12" max="12" width="16.8173076923077" style="6" customWidth="1"/>
-    <col min="13" max="13" width="16.5096153846154" style="6" customWidth="1"/>
-    <col min="14" max="14" width="20.9903846153846" style="6" customWidth="1"/>
-    <col min="15" max="15" width="22.4230769230769" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="10.8365384615385" style="6"/>
+    <col min="1" max="1" width="10.8365384615385" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.2980769230769" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.3846153846154" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.3557692307692" style="11" customWidth="1"/>
+    <col min="5" max="5" width="24.0384615384615" style="11" customWidth="1"/>
+    <col min="6" max="6" width="33.4903846153846" style="11" customWidth="1"/>
+    <col min="7" max="7" width="32.0480769230769" style="11" customWidth="1"/>
+    <col min="8" max="8" width="33.9711538461538" style="11" customWidth="1"/>
+    <col min="9" max="9" width="25.4807692307692" style="11" customWidth="1"/>
+    <col min="10" max="10" width="24.5192307692308" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.4134615384615" style="11" customWidth="1"/>
+    <col min="12" max="12" width="16.8173076923077" style="11" customWidth="1"/>
+    <col min="13" max="13" width="16.5096153846154" style="11" customWidth="1"/>
+    <col min="14" max="14" width="20.9903846153846" style="11" customWidth="1"/>
+    <col min="15" max="15" width="22.4230769230769" style="11" customWidth="1"/>
+    <col min="16" max="16384" width="10.8365384615385" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="20" customHeight="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="10" customFormat="1" ht="20" customHeight="1" spans="1:15">
+      <c r="A1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="18" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2301,45 +3372,45 @@
     <col min="15" max="16384" width="10.8365384615385" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="8" customFormat="1" ht="20" customHeight="1" spans="1:14">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2347,43 +3418,43 @@
       <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2399,7 +3470,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
@@ -2410,45 +3481,45 @@
     <col min="15" max="16384" width="10.8365384615385" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="8" customFormat="1" ht="20" customHeight="1" spans="1:14">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2456,43 +3527,43 @@
       <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2500,4 +3571,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="20.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="16.3365384615385" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="9.23076923076923" style="2"/>
+    <col min="6" max="8" width="10.1538461538462" style="2"/>
+    <col min="9" max="16384" width="9.23076923076923" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -545,14 +545,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -583,9 +583,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,15 +625,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -627,22 +658,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -651,7 +666,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,36 +695,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -709,9 +702,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,9 +717,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,7 +765,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,31 +801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,13 +819,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,13 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,25 +879,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +903,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,13 +927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,25 +939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,6 +1011,30 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,183 +1127,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1288,8 +1288,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1298,10 +1298,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1310,9 +1310,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1726,7 +1726,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.249872029250457"/>
+          <c:y val="0.926296958855098"/>
+          <c:w val="0.532650822669104"/>
+          <c:h val="0.059391771019678"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2359,8 +2368,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>535940</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>246380</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2369,7 +2378,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5896610" y="255905"/>
-        <a:ext cx="8705850" cy="5324475"/>
+        <a:ext cx="8705850" cy="5535295"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2670,7 +2679,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>

--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -20,7 +20,7 @@
     <definedName name="daily__weight_75">OFFSET(个股权重!$H$2,0,0,daily__date_count)</definedName>
     <definedName name="daily__weight_mean">OFFSET(个股权重!$C$2,0,0,daily__date_count)</definedName>
     <definedName name="daily__weight_max">OFFSET(个股权重!$I$2,0,0,daily__date_count)</definedName>
-    <definedName name="daily__dates">OFFSET(个股权重!$A$1,0,0,daily__date_count)</definedName>
+    <definedName name="daily__dates">OFFSET(个股权重!$A$2,0,0,daily__date_count)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -544,15 +544,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0.000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -590,13 +590,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -605,7 +598,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,31 +627,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,8 +643,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,22 +681,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,16 +709,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,7 +765,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,19 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +843,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,97 +879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,25 +903,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,16 +1024,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1054,41 +1087,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,176 +1127,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="12">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="12">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1288,7 +1288,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1300,8 +1300,8 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1310,10 +1310,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1471,8 +1471,8 @@
               <c:f>[0]!daily__dates</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>日期</c:v>
+                <c:pt idx="0" c:formatCode="yyyy/m/d;@">
+                  <c:v>#date#</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1525,8 +1525,8 @@
               <c:f>[0]!daily__dates</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>日期</c:v>
+                <c:pt idx="0" c:formatCode="yyyy/m/d;@">
+                  <c:v>#date#</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1579,8 +1579,8 @@
               <c:f>[0]!daily__dates</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>日期</c:v>
+                <c:pt idx="0" c:formatCode="yyyy/m/d;@">
+                  <c:v>#date#</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2363,13 +2363,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>535940</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>213995</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2377,7 +2377,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5896610" y="255905"/>
+        <a:off x="5896610" y="266700"/>
         <a:ext cx="8705850" cy="5535295"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2679,7 +2679,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>

--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22460"/>
+    <workbookView windowHeight="22400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="171">
   <si>
     <t>策略名称</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>绝对收益年化波动率</t>
+  </si>
+  <si>
+    <t>超额夏普比率</t>
   </si>
   <si>
     <t>超额收益周胜率</t>
@@ -544,15 +547,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -590,7 +593,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,6 +601,119 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -613,120 +729,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,13 +768,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +810,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,79 +912,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,55 +942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,15 +1036,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1053,6 +1047,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,21 +1081,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1098,17 +1092,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,156 +1110,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="12">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="10">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="12">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="10">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1288,8 +1291,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1298,10 +1301,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1310,10 +1313,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2678,7 +2681,7 @@
   <sheetPr/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3238,10 +3241,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
@@ -3264,7 +3267,7 @@
     <col min="16" max="16384" width="10.8365384615385" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="1" s="10" customFormat="1" ht="20" customHeight="1" spans="1:16">
       <c r="A1" s="9" t="s">
         <v>104</v>
       </c>
@@ -3299,62 +3302,68 @@
         <v>32</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:15">
+      <c r="P1" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:16">
       <c r="A2" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="13" t="s">
         <v>125</v>
       </c>
       <c r="O2" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3384,87 +3393,87 @@
     <row r="1" s="8" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3493,87 +3502,87 @@
     <row r="1" s="8" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3602,60 +3611,60 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ricequant\rqalpha\rqalpha\mod\rqalpha_mod_sys_analyser\report\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BD3061-9025-480B-8D0D-2680C5790A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="22400" activeTab="1"/>
+    <workbookView xWindow="44430" yWindow="2805" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
@@ -12,22 +18,23 @@
     <sheet name="月度收益" sheetId="3" r:id="rId3"/>
     <sheet name="月度超额收益（几何）" sheetId="4" r:id="rId4"/>
     <sheet name="个股权重" sheetId="5" r:id="rId5"/>
+    <sheet name="压力测试" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="daily__date_count">COUNTA(个股权重!$A:$A)-1</definedName>
+    <definedName name="daily__dates">OFFSET(个股权重!$A$2,0,0,daily__date_count)</definedName>
     <definedName name="daily__weight_25">OFFSET(个股权重!$F$2,0,0,daily__date_count)</definedName>
     <definedName name="daily__weight_50">OFFSET(个股权重!$G$2,0,0,daily__date_count)</definedName>
     <definedName name="daily__weight_75">OFFSET(个股权重!$H$2,0,0,daily__date_count)</definedName>
+    <definedName name="daily__weight_max">OFFSET(个股权重!$I$2,0,0,daily__date_count)</definedName>
     <definedName name="daily__weight_mean">OFFSET(个股权重!$C$2,0,0,daily__date_count)</definedName>
-    <definedName name="daily__weight_max">OFFSET(个股权重!$I$2,0,0,daily__date_count)</definedName>
-    <definedName name="daily__dates">OFFSET(个股权重!$A$2,0,0,daily__date_count)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="191">
   <si>
     <t>策略名称</t>
   </si>
@@ -540,24 +547,100 @@
   </si>
   <si>
     <t>#max#</t>
+  </si>
+  <si>
+    <t>名称（标题）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化收益率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额收益率（几何）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对收益最大回撤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额收益最大回撤（几何）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏普比率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额夏普比率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#title#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#start_date#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#end_date#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#returns#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#max_drawdown#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#sharpe#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#excess_sharpe#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#geometric_excess_return#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#geometric_excess_drawdown#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#annual_return#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,157 +668,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,49 +736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,140 +746,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1018,39 +818,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1065,247 +832,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="10">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="10">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1322,71 +874,32 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
+    <cellStyle name="-3522966690757464237" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="-4237263631367923067" xfId="2" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="-3522966690757464237" xfId="11"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="-4237263631367923067" xfId="46"/>
-    <cellStyle name="标题 3" xfId="47" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1419,12 +932,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>个股权重</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1433,6 +946,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1466,15 +999,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>[0]!daily__dates</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d;@">
+                <c:pt idx="0">
                   <c:v>#date#</c:v>
                 </c:pt>
               </c:strCache>
@@ -1493,6 +1023,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-612A-4FB7-B5FF-52379480CFB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1520,15 +1055,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>[0]!daily__dates</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d;@">
+                <c:pt idx="0">
                   <c:v>#date#</c:v>
                 </c:pt>
               </c:strCache>
@@ -1547,6 +1079,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-612A-4FB7-B5FF-52379480CFB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1574,15 +1111,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>[0]!daily__dates</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d;@">
+                <c:pt idx="0">
                   <c:v>#date#</c:v>
                 </c:pt>
               </c:strCache>
@@ -1601,6 +1135,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-612A-4FB7-B5FF-52379480CFB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1610,7 +1149,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="101121013"/>
         <c:axId val="195469628"/>
@@ -1622,6 +1160,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1639,7 +1178,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1655,12 +1194,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="195469628"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
@@ -1713,6 +1252,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="101121013"/>
@@ -1733,10 +1273,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.249872029250457"/>
+          <c:x val="0.24987202925045701"/>
           <c:y val="0.926296958855098"/>
-          <c:w val="0.532650822669104"/>
-          <c:h val="0.059391771019678"/>
+          <c:w val="0.53265082266910402"/>
+          <c:h val="5.9391771019677998E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1764,6 +1304,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1793,6 +1334,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2360,7 +1902,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2374,14 +1916,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>213995</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5896610" y="266700"/>
-        <a:ext cx="8705850" cy="5535295"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2673,1002 +2221,1096 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.9807692307692" customWidth="1"/>
-    <col min="2" max="2" width="46.4711538461538" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="21" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="21" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="21" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="21" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="21" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="23" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="23" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="23" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="23" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="23" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="23" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="23" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="23" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="21" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="21" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="21" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="21" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="21" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="21" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="21" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="21" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="21" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="21" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="21" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:6">
-      <c r="A28" s="21" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="21" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:6">
-      <c r="A30" s="23" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:6">
-      <c r="A31" s="23" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:6">
-      <c r="A32" s="23" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="23" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="23" t="s">
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" s="23" t="s">
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" s="23" t="s">
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:2">
-      <c r="A39" s="23" t="s">
+    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:2">
-      <c r="A40" s="23" t="s">
+    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="21" t="s">
+    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="21" t="s">
+    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="21" t="s">
+    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:2">
-      <c r="A47" s="21" t="s">
+    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:2">
-      <c r="A48" s="21" t="s">
+    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:2">
-      <c r="A49" s="21" t="s">
+    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:2">
-      <c r="A50" s="21" t="s">
+    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:2">
-      <c r="A51" s="21" t="s">
+    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:2">
-      <c r="A52" s="31" t="s">
+    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="26" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8365384615385" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.2980769230769" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15.3846153846154" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.3557692307692" style="11" customWidth="1"/>
-    <col min="5" max="5" width="24.0384615384615" style="11" customWidth="1"/>
-    <col min="6" max="6" width="33.4903846153846" style="11" customWidth="1"/>
-    <col min="7" max="7" width="32.0480769230769" style="11" customWidth="1"/>
-    <col min="8" max="8" width="33.9711538461538" style="11" customWidth="1"/>
-    <col min="9" max="9" width="25.4807692307692" style="11" customWidth="1"/>
-    <col min="10" max="10" width="24.5192307692308" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.4134615384615" style="11" customWidth="1"/>
-    <col min="12" max="12" width="16.8173076923077" style="11" customWidth="1"/>
-    <col min="13" max="13" width="16.5096153846154" style="11" customWidth="1"/>
-    <col min="14" max="14" width="20.9903846153846" style="11" customWidth="1"/>
-    <col min="15" max="15" width="22.4230769230769" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="10.8365384615385" style="11"/>
+    <col min="1" max="1" width="10.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24" style="7" customWidth="1"/>
+    <col min="6" max="6" width="33.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="32" style="7" customWidth="1"/>
+    <col min="8" max="8" width="34" style="7" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="24.5" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="7" customWidth="1"/>
+    <col min="14" max="14" width="21" style="7" customWidth="1"/>
+    <col min="15" max="15" width="22.375" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="10.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="20" customHeight="1" spans="1:16">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:16">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="9" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8365384615385" style="2" customWidth="1"/>
-    <col min="2" max="13" width="15.8365384615385" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.0961538461538" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.8365384615385" style="2"/>
+    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="15.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="20" customHeight="1" spans="1:14">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:14">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8365384615385" style="2" customWidth="1"/>
-    <col min="2" max="13" width="15.8365384615385" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.5769230769231" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.8365384615385" style="2"/>
+    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="15.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="20" customHeight="1" spans="1:14">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:14">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="20.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3365384615385" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="9.23076923076923" style="2"/>
-    <col min="6" max="8" width="10.1538461538462" style="2"/>
-    <col min="9" max="16384" width="9.23076923076923" style="2"/>
+    <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.25" style="1"/>
+    <col min="6" max="8" width="10.125" style="1"/>
+    <col min="9" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>170</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84C164A-7D84-4A32-8840-7EDA24C0A2B6}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="14.625" style="7" customWidth="1"/>
+    <col min="6" max="7" width="24.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="18.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="7" customWidth="1"/>
+    <col min="14" max="14" width="21" style="7" customWidth="1"/>
+    <col min="15" max="15" width="22.375" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="10.875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ricequant\rqalpha\rqalpha\mod\rqalpha_mod_sys_analyser\report\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BD3061-9025-480B-8D0D-2680C5790A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC84B93-646C-4507-B620-055F52108B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44430" yWindow="2805" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-270" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="192">
   <si>
     <t>策略名称</t>
   </si>
@@ -357,276 +357,283 @@
     <t>超额收益率（几何）</t>
   </si>
   <si>
+    <t>超额收益年化波动率</t>
+  </si>
+  <si>
+    <t>绝对收益年化波动率</t>
+  </si>
+  <si>
+    <t>超额夏普比率</t>
+  </si>
+  <si>
+    <t>超额收益周胜率</t>
+  </si>
+  <si>
+    <t>超额收益月胜率</t>
+  </si>
+  <si>
+    <t>#year#</t>
+  </si>
+  <si>
+    <t>#returns#</t>
+  </si>
+  <si>
+    <t>#benchmark_returns#</t>
+  </si>
+  <si>
+    <t>#geometric_excess_return#</t>
+  </si>
+  <si>
+    <t>#max_drawdown_days#</t>
+  </si>
+  <si>
+    <t>#geometric_excess_drawdown#</t>
+  </si>
+  <si>
+    <t>#geometric_excess_drawdown_days#</t>
+  </si>
+  <si>
+    <t>#excess_annual_volatility#</t>
+  </si>
+  <si>
+    <t>#annual_volatility#</t>
+  </si>
+  <si>
+    <t>#sharpe_ratio#</t>
+  </si>
+  <si>
+    <t>#annual_tracking_error#</t>
+  </si>
+  <si>
+    <t>#weekly_excess_win_rate#</t>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>三月</t>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>五月</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>八月</t>
+  </si>
+  <si>
+    <t>九月</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>十二月</t>
+  </si>
+  <si>
+    <t>年度加总</t>
+  </si>
+  <si>
+    <t>#1#</t>
+  </si>
+  <si>
+    <t>#2#</t>
+  </si>
+  <si>
+    <t>#3#</t>
+  </si>
+  <si>
+    <t>#4#</t>
+  </si>
+  <si>
+    <t>#5#</t>
+  </si>
+  <si>
+    <t>#6#</t>
+  </si>
+  <si>
+    <t>#7#</t>
+  </si>
+  <si>
+    <t>#8#</t>
+  </si>
+  <si>
+    <t>#9#</t>
+  </si>
+  <si>
+    <t>#10#</t>
+  </si>
+  <si>
+    <t>#11#</t>
+  </si>
+  <si>
+    <t>#12#</t>
+  </si>
+  <si>
+    <t>#cum#</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>持仓总个数</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>#date#</t>
+  </si>
+  <si>
+    <t>#count#</t>
+  </si>
+  <si>
+    <t>#mean#</t>
+  </si>
+  <si>
+    <t>#std#</t>
+  </si>
+  <si>
+    <t>#min#</t>
+  </si>
+  <si>
+    <t>#percent_25#</t>
+  </si>
+  <si>
+    <t>#percent_50#</t>
+  </si>
+  <si>
+    <t>#percent_75#</t>
+  </si>
+  <si>
+    <t>#max#</t>
+  </si>
+  <si>
+    <t>名称（标题）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额收益率（几何）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>绝对收益最大回撤</t>
-  </si>
-  <si>
-    <t>绝对收益最大回撤持续时间</t>
-  </si>
-  <si>
-    <t>超额收益最大回撤持续时间</t>
-  </si>
-  <si>
-    <t>超额收益年化波动率</t>
-  </si>
-  <si>
-    <t>绝对收益年化波动率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏普比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>超额夏普比率</t>
-  </si>
-  <si>
-    <t>超额收益周胜率</t>
-  </si>
-  <si>
-    <t>超额收益月胜率</t>
-  </si>
-  <si>
-    <t>#year#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#title#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#start_date#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#end_date#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#returns#</t>
-  </si>
-  <si>
-    <t>#benchmark_returns#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#max_drawdown#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#sharpe#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#excess_sharpe#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#geometric_excess_return#</t>
-  </si>
-  <si>
-    <t>#max_drawdown_days#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#geometric_excess_drawdown#</t>
-  </si>
-  <si>
-    <t>#geometric_excess_drawdown_days#</t>
-  </si>
-  <si>
-    <t>#excess_annual_volatility#</t>
-  </si>
-  <si>
-    <t>#annual_volatility#</t>
-  </si>
-  <si>
-    <t>#sharpe_ratio#</t>
-  </si>
-  <si>
-    <t>#annual_tracking_error#</t>
-  </si>
-  <si>
-    <t>#weekly_excess_win_rate#</t>
-  </si>
-  <si>
-    <t>一月</t>
-  </si>
-  <si>
-    <t>二月</t>
-  </si>
-  <si>
-    <t>三月</t>
-  </si>
-  <si>
-    <t>四月</t>
-  </si>
-  <si>
-    <t>五月</t>
-  </si>
-  <si>
-    <t>六月</t>
-  </si>
-  <si>
-    <t>七月</t>
-  </si>
-  <si>
-    <t>八月</t>
-  </si>
-  <si>
-    <t>九月</t>
-  </si>
-  <si>
-    <t>十月</t>
-  </si>
-  <si>
-    <t>十一月</t>
-  </si>
-  <si>
-    <t>十二月</t>
-  </si>
-  <si>
-    <t>年度加总</t>
-  </si>
-  <si>
-    <t>#1#</t>
-  </si>
-  <si>
-    <t>#2#</t>
-  </si>
-  <si>
-    <t>#3#</t>
-  </si>
-  <si>
-    <t>#4#</t>
-  </si>
-  <si>
-    <t>#5#</t>
-  </si>
-  <si>
-    <t>#6#</t>
-  </si>
-  <si>
-    <t>#7#</t>
-  </si>
-  <si>
-    <t>#8#</t>
-  </si>
-  <si>
-    <t>#9#</t>
-  </si>
-  <si>
-    <t>#10#</t>
-  </si>
-  <si>
-    <t>#11#</t>
-  </si>
-  <si>
-    <t>#12#</t>
-  </si>
-  <si>
-    <t>#cum#</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>持仓总个数</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>#date#</t>
-  </si>
-  <si>
-    <t>#count#</t>
-  </si>
-  <si>
-    <t>#mean#</t>
-  </si>
-  <si>
-    <t>#std#</t>
-  </si>
-  <si>
-    <t>#min#</t>
-  </si>
-  <si>
-    <t>#percent_25#</t>
-  </si>
-  <si>
-    <t>#percent_50#</t>
-  </si>
-  <si>
-    <t>#percent_75#</t>
-  </si>
-  <si>
-    <t>#max#</t>
-  </si>
-  <si>
-    <t>名称（标题）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>年化收益率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>超额收益率（几何）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对收益最大回撤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>超额收益最大回撤（几何）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏普比率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>超额夏普比率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#title#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#start_date#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#end_date#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#returns#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#max_drawdown#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#sharpe#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#excess_sharpe#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#geometric_excess_return#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#geometric_excess_drawdown#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#annual_return#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额最大回撤持续时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大回撤持续时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益最大回撤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额最大回撤（几何）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额最大回撤（几何）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -640,28 +647,9 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -680,11 +668,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -702,11 +690,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -835,50 +823,95 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="-3522966690757464237" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
@@ -2227,560 +2260,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="1" max="1" width="34" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="11" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2790,132 +2700,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="24" style="7" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="32" style="7" customWidth="1"/>
-    <col min="8" max="8" width="34" style="7" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="7" customWidth="1"/>
-    <col min="10" max="10" width="24.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="16.5" style="7" customWidth="1"/>
-    <col min="14" max="14" width="21" style="7" customWidth="1"/>
-    <col min="15" max="15" width="22.375" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="7"/>
+    <col min="1" max="1" width="12.625" style="2" customWidth="1"/>
+    <col min="2" max="16" width="24.625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="B2" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="C2" s="17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="D2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="E2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="G2" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="H2" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="J2" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="K2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="L2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="O2" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="17" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2924,106 +2821,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="13" width="15.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="10.875" style="22" customWidth="1"/>
+    <col min="2" max="14" width="16.625" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="C2" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="D2" s="23" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="M2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="N2" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>152</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3032,104 +2928,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="13" width="15.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="10.875" style="22" customWidth="1"/>
+    <col min="2" max="14" width="16.625" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="C2" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="D2" s="23" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="M2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="N2" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>152</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3139,78 +3036,76 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.25" style="1"/>
-    <col min="6" max="8" width="10.125" style="1"/>
-    <col min="9" max="16384" width="9.25" style="1"/>
+    <col min="1" max="2" width="14.625" style="22" customWidth="1"/>
+    <col min="3" max="9" width="10.625" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="9.25" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="B2" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C2" s="23" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="D2" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>170</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3219,98 +3114,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84C164A-7D84-4A32-8840-7EDA24C0A2B6}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="7" customWidth="1"/>
-    <col min="2" max="5" width="14.625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="24.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="18.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="16.5" style="7" customWidth="1"/>
-    <col min="14" max="14" width="21" style="7" customWidth="1"/>
-    <col min="15" max="15" width="22.375" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="7"/>
+    <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
+    <col min="2" max="5" width="24.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.625" style="17" customWidth="1"/>
+    <col min="9" max="10" width="24.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21" style="2" customWidth="1"/>
+    <col min="15" max="15" width="22.375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="E1" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="G1" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="H1" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="J1" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="27" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="B2" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="C2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="D2" s="17" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="E2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="H2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="J2" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ricequant\rqalpha\rqalpha\mod\rqalpha_mod_sys_analyser\report\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC84B93-646C-4507-B620-055F52108B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="22400" activeTab="1"/>
+    <workbookView xWindow="38280" yWindow="-270" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
@@ -12,22 +18,23 @@
     <sheet name="月度收益" sheetId="3" r:id="rId3"/>
     <sheet name="月度超额收益（几何）" sheetId="4" r:id="rId4"/>
     <sheet name="个股权重" sheetId="5" r:id="rId5"/>
+    <sheet name="压力测试" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="daily__date_count">COUNTA(个股权重!$A:$A)-1</definedName>
+    <definedName name="daily__dates">OFFSET(个股权重!$A$2,0,0,daily__date_count)</definedName>
     <definedName name="daily__weight_25">OFFSET(个股权重!$F$2,0,0,daily__date_count)</definedName>
     <definedName name="daily__weight_50">OFFSET(个股权重!$G$2,0,0,daily__date_count)</definedName>
     <definedName name="daily__weight_75">OFFSET(个股权重!$H$2,0,0,daily__date_count)</definedName>
+    <definedName name="daily__weight_max">OFFSET(个股权重!$I$2,0,0,daily__date_count)</definedName>
     <definedName name="daily__weight_mean">OFFSET(个股权重!$C$2,0,0,daily__date_count)</definedName>
-    <definedName name="daily__weight_max">OFFSET(个股权重!$I$2,0,0,daily__date_count)</definedName>
-    <definedName name="daily__dates">OFFSET(个股权重!$A$2,0,0,daily__date_count)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="192">
   <si>
     <t>策略名称</t>
   </si>
@@ -350,214 +357,297 @@
     <t>超额收益率（几何）</t>
   </si>
   <si>
+    <t>超额收益年化波动率</t>
+  </si>
+  <si>
+    <t>绝对收益年化波动率</t>
+  </si>
+  <si>
+    <t>超额夏普比率</t>
+  </si>
+  <si>
+    <t>超额收益周胜率</t>
+  </si>
+  <si>
+    <t>超额收益月胜率</t>
+  </si>
+  <si>
+    <t>#year#</t>
+  </si>
+  <si>
+    <t>#returns#</t>
+  </si>
+  <si>
+    <t>#benchmark_returns#</t>
+  </si>
+  <si>
+    <t>#geometric_excess_return#</t>
+  </si>
+  <si>
+    <t>#max_drawdown_days#</t>
+  </si>
+  <si>
+    <t>#geometric_excess_drawdown#</t>
+  </si>
+  <si>
+    <t>#geometric_excess_drawdown_days#</t>
+  </si>
+  <si>
+    <t>#excess_annual_volatility#</t>
+  </si>
+  <si>
+    <t>#annual_volatility#</t>
+  </si>
+  <si>
+    <t>#sharpe_ratio#</t>
+  </si>
+  <si>
+    <t>#annual_tracking_error#</t>
+  </si>
+  <si>
+    <t>#weekly_excess_win_rate#</t>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>三月</t>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>五月</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>八月</t>
+  </si>
+  <si>
+    <t>九月</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>十二月</t>
+  </si>
+  <si>
+    <t>年度加总</t>
+  </si>
+  <si>
+    <t>#1#</t>
+  </si>
+  <si>
+    <t>#2#</t>
+  </si>
+  <si>
+    <t>#3#</t>
+  </si>
+  <si>
+    <t>#4#</t>
+  </si>
+  <si>
+    <t>#5#</t>
+  </si>
+  <si>
+    <t>#6#</t>
+  </si>
+  <si>
+    <t>#7#</t>
+  </si>
+  <si>
+    <t>#8#</t>
+  </si>
+  <si>
+    <t>#9#</t>
+  </si>
+  <si>
+    <t>#10#</t>
+  </si>
+  <si>
+    <t>#11#</t>
+  </si>
+  <si>
+    <t>#12#</t>
+  </si>
+  <si>
+    <t>#cum#</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>持仓总个数</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>#date#</t>
+  </si>
+  <si>
+    <t>#count#</t>
+  </si>
+  <si>
+    <t>#mean#</t>
+  </si>
+  <si>
+    <t>#std#</t>
+  </si>
+  <si>
+    <t>#min#</t>
+  </si>
+  <si>
+    <t>#percent_25#</t>
+  </si>
+  <si>
+    <t>#percent_50#</t>
+  </si>
+  <si>
+    <t>#percent_75#</t>
+  </si>
+  <si>
+    <t>#max#</t>
+  </si>
+  <si>
+    <t>名称（标题）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额收益率（几何）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>绝对收益最大回撤</t>
-  </si>
-  <si>
-    <t>绝对收益最大回撤持续时间</t>
-  </si>
-  <si>
-    <t>超额收益最大回撤持续时间</t>
-  </si>
-  <si>
-    <t>超额收益年化波动率</t>
-  </si>
-  <si>
-    <t>绝对收益年化波动率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏普比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>超额夏普比率</t>
-  </si>
-  <si>
-    <t>超额收益周胜率</t>
-  </si>
-  <si>
-    <t>超额收益月胜率</t>
-  </si>
-  <si>
-    <t>#year#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#title#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#start_date#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#end_date#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#returns#</t>
-  </si>
-  <si>
-    <t>#benchmark_returns#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#max_drawdown#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#sharpe#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#excess_sharpe#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#geometric_excess_return#</t>
-  </si>
-  <si>
-    <t>#max_drawdown_days#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#geometric_excess_drawdown#</t>
-  </si>
-  <si>
-    <t>#geometric_excess_drawdown_days#</t>
-  </si>
-  <si>
-    <t>#excess_annual_volatility#</t>
-  </si>
-  <si>
-    <t>#annual_volatility#</t>
-  </si>
-  <si>
-    <t>#sharpe_ratio#</t>
-  </si>
-  <si>
-    <t>#annual_tracking_error#</t>
-  </si>
-  <si>
-    <t>#weekly_excess_win_rate#</t>
-  </si>
-  <si>
-    <t>一月</t>
-  </si>
-  <si>
-    <t>二月</t>
-  </si>
-  <si>
-    <t>三月</t>
-  </si>
-  <si>
-    <t>四月</t>
-  </si>
-  <si>
-    <t>五月</t>
-  </si>
-  <si>
-    <t>六月</t>
-  </si>
-  <si>
-    <t>七月</t>
-  </si>
-  <si>
-    <t>八月</t>
-  </si>
-  <si>
-    <t>九月</t>
-  </si>
-  <si>
-    <t>十月</t>
-  </si>
-  <si>
-    <t>十一月</t>
-  </si>
-  <si>
-    <t>十二月</t>
-  </si>
-  <si>
-    <t>年度加总</t>
-  </si>
-  <si>
-    <t>#1#</t>
-  </si>
-  <si>
-    <t>#2#</t>
-  </si>
-  <si>
-    <t>#3#</t>
-  </si>
-  <si>
-    <t>#4#</t>
-  </si>
-  <si>
-    <t>#5#</t>
-  </si>
-  <si>
-    <t>#6#</t>
-  </si>
-  <si>
-    <t>#7#</t>
-  </si>
-  <si>
-    <t>#8#</t>
-  </si>
-  <si>
-    <t>#9#</t>
-  </si>
-  <si>
-    <t>#10#</t>
-  </si>
-  <si>
-    <t>#11#</t>
-  </si>
-  <si>
-    <t>#12#</t>
-  </si>
-  <si>
-    <t>#cum#</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>持仓总个数</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>#date#</t>
-  </si>
-  <si>
-    <t>#count#</t>
-  </si>
-  <si>
-    <t>#mean#</t>
-  </si>
-  <si>
-    <t>#std#</t>
-  </si>
-  <si>
-    <t>#min#</t>
-  </si>
-  <si>
-    <t>#percent_25#</t>
-  </si>
-  <si>
-    <t>#percent_50#</t>
-  </si>
-  <si>
-    <t>#percent_75#</t>
-  </si>
-  <si>
-    <t>#max#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#annual_return#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额最大回撤持续时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大回撤持续时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益最大回撤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额最大回撤（几何）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额最大回撤（几何）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,176 +656,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,49 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,140 +734,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1018,39 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1065,328 +820,119 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="10">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="10">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
+    <cellStyle name="-3522966690757464237" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="-4237263631367923067" xfId="2" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="-3522966690757464237" xfId="11"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="-4237263631367923067" xfId="46"/>
-    <cellStyle name="标题 3" xfId="47" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1419,12 +965,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>个股权重</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1433,6 +979,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1466,15 +1032,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>[0]!daily__dates</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d;@">
+                <c:pt idx="0">
                   <c:v>#date#</c:v>
                 </c:pt>
               </c:strCache>
@@ -1493,6 +1056,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-612A-4FB7-B5FF-52379480CFB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1520,15 +1088,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>[0]!daily__dates</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d;@">
+                <c:pt idx="0">
                   <c:v>#date#</c:v>
                 </c:pt>
               </c:strCache>
@@ -1547,6 +1112,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-612A-4FB7-B5FF-52379480CFB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1574,15 +1144,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>[0]!daily__dates</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d;@">
+                <c:pt idx="0">
                   <c:v>#date#</c:v>
                 </c:pt>
               </c:strCache>
@@ -1601,6 +1168,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-612A-4FB7-B5FF-52379480CFB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1610,7 +1182,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="101121013"/>
         <c:axId val="195469628"/>
@@ -1622,6 +1193,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1639,7 +1211,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1655,12 +1227,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="195469628"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
@@ -1713,6 +1285,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="101121013"/>
@@ -1733,10 +1306,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.249872029250457"/>
+          <c:x val="0.24987202925045701"/>
           <c:y val="0.926296958855098"/>
-          <c:w val="0.532650822669104"/>
-          <c:h val="0.059391771019678"/>
+          <c:w val="0.53265082266910402"/>
+          <c:h val="5.9391771019677998E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1764,6 +1337,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1793,6 +1367,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2360,7 +1935,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2374,14 +1949,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>213995</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5896610" y="266700"/>
-        <a:ext cx="8705850" cy="5535295"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2673,1002 +2254,958 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.9807692307692" customWidth="1"/>
-    <col min="2" max="2" width="46.4711538461538" customWidth="1"/>
+    <col min="1" max="1" width="34" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="21" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="21" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="21" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="21" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="21" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="21" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="23" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="23" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="23" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="23" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="23" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="23" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="23" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="23" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="21" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="21" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="21" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="21" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="21" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="21" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="21" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="21" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="21" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="21" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="21" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:6">
-      <c r="A28" s="21" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="21" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:6">
-      <c r="A30" s="23" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:6">
-      <c r="A31" s="23" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:6">
-      <c r="A32" s="23" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="23" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="23" t="s">
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" s="23" t="s">
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" s="23" t="s">
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:2">
-      <c r="A39" s="23" t="s">
+    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:2">
-      <c r="A40" s="23" t="s">
+    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="21" t="s">
+    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="21" t="s">
+    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="21" t="s">
+    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:2">
-      <c r="A47" s="21" t="s">
+    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:2">
-      <c r="A48" s="21" t="s">
+    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:2">
-      <c r="A49" s="21" t="s">
+    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:2">
-      <c r="A50" s="21" t="s">
+    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:2">
-      <c r="A51" s="21" t="s">
+    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:2">
-      <c r="A52" s="31" t="s">
+    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="11" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8365384615385" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.2980769230769" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15.3846153846154" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.3557692307692" style="11" customWidth="1"/>
-    <col min="5" max="5" width="24.0384615384615" style="11" customWidth="1"/>
-    <col min="6" max="6" width="33.4903846153846" style="11" customWidth="1"/>
-    <col min="7" max="7" width="32.0480769230769" style="11" customWidth="1"/>
-    <col min="8" max="8" width="33.9711538461538" style="11" customWidth="1"/>
-    <col min="9" max="9" width="25.4807692307692" style="11" customWidth="1"/>
-    <col min="10" max="10" width="24.5192307692308" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.4134615384615" style="11" customWidth="1"/>
-    <col min="12" max="12" width="16.8173076923077" style="11" customWidth="1"/>
-    <col min="13" max="13" width="16.5096153846154" style="11" customWidth="1"/>
-    <col min="14" max="14" width="20.9903846153846" style="11" customWidth="1"/>
-    <col min="15" max="15" width="22.4230769230769" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="10.8365384615385" style="11"/>
+    <col min="1" max="1" width="12.625" style="2" customWidth="1"/>
+    <col min="2" max="16" width="24.625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="20" customHeight="1" spans="1:16">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="J1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="M1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="P1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="9" t="s">
+      <c r="B2" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="C2" s="17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:16">
-      <c r="A2" s="12" t="s">
+      <c r="D2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="E2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="G2" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="H2" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="I2" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="J2" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="K2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="L2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="O2" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8365384615385" style="2" customWidth="1"/>
-    <col min="2" max="13" width="15.8365384615385" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.0961538461538" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.8365384615385" style="2"/>
+    <col min="1" max="1" width="10.875" style="22" customWidth="1"/>
+    <col min="2" max="14" width="16.625" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="20" customHeight="1" spans="1:14">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="H1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="I1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="L1" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="M1" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="N1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="C2" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="D2" s="23" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="E2" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="J2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="M2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="N2" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>152</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8365384615385" style="2" customWidth="1"/>
-    <col min="2" max="13" width="15.8365384615385" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.5769230769231" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.8365384615385" style="2"/>
+    <col min="1" max="1" width="10.875" style="22" customWidth="1"/>
+    <col min="2" max="14" width="16.625" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="20" customHeight="1" spans="1:14">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="H1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="I1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="L1" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="M1" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="N1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="C2" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="D2" s="23" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="E2" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="J2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="M2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="N2" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>152</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="20.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3365384615385" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="9.23076923076923" style="2"/>
-    <col min="6" max="8" width="10.1538461538462" style="2"/>
-    <col min="9" max="16384" width="9.23076923076923" style="2"/>
+    <col min="1" max="2" width="14.625" style="22" customWidth="1"/>
+    <col min="3" max="9" width="10.625" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="9.25" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="B2" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="C2" s="23" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="D2" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="6" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84C164A-7D84-4A32-8840-7EDA24C0A2B6}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
+    <col min="2" max="5" width="24.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.625" style="17" customWidth="1"/>
+    <col min="9" max="10" width="24.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21" style="2" customWidth="1"/>
+    <col min="15" max="15" width="22.375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="10.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="B1" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="C1" s="21" t="s">
         <v>170</v>
       </c>
+      <c r="D1" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
+++ b/rqalpha/mod/rqalpha_mod_sys_analyser/report/templates/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ricequant\rqalpha\rqalpha\mod\rqalpha_mod_sys_analyser\report\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC84B93-646C-4507-B620-055F52108B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DD12C8-EBB8-4C89-88FD-1F4BF1334802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-270" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44760" yWindow="3690" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="196">
   <si>
     <t>策略名称</t>
   </si>
@@ -634,6 +634,22 @@
   <si>
     <t>超额最大回撤（几何）</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#alpha#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#beta#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2698,20 +2714,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" style="2" customWidth="1"/>
-    <col min="2" max="16" width="24.625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="10.875" style="2"/>
+    <col min="2" max="18" width="24.625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>104</v>
       </c>
@@ -2760,8 +2776,14 @@
       <c r="P1" s="21" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q1" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>112</v>
       </c>
@@ -2809,6 +2831,12 @@
       </c>
       <c r="P2" s="17" t="s">
         <v>77</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
